--- a/wash_P/ESP.xlsx
+++ b/wash_P/ESP.xlsx
@@ -22230,7 +22230,7 @@
         <v>0</v>
       </c>
       <c r="LE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF7" t="n">
         <v>0</v>
@@ -37141,7 +37141,7 @@
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -37234,7 +37234,7 @@
         <v>0</v>
       </c>
       <c r="DA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -71564,7 +71564,7 @@
         <v>0</v>
       </c>
       <c r="CA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB23" t="n">
         <v>0</v>
@@ -73064,7 +73064,7 @@
         <v>0</v>
       </c>
       <c r="VG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VH23" t="n">
         <v>0</v>
@@ -76264,7 +76264,7 @@
         <v>0</v>
       </c>
       <c r="WE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WF24" t="n">
         <v>0</v>
@@ -88701,7 +88701,7 @@
         <v>0</v>
       </c>
       <c r="VF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VG28" t="n">
         <v>0</v>
